--- a/sample_data/validator-0.4.2 example input files/valid test data - row 2 headers.xlsx
+++ b/sample_data/validator-0.4.2 example input files/valid test data - row 2 headers.xlsx
@@ -364,7 +364,7 @@
     <t xml:space="preserve">Bronchiole</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluid (seminal)</t>
+    <t xml:space="preserve">Tear</t>
   </si>
   <si>
     <t xml:space="preserve">Emergency room (ER)</t>
@@ -1449,15 +1449,15 @@
   </sheetPr>
   <dimension ref="A1:CL7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO23" activeCellId="0" sqref="AO23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z3" activeCellId="0" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.45"/>
@@ -1476,7 +1476,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="28.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="23.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="17.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="20.4"/>
@@ -1496,7 +1496,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="21.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="11.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="10.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="29.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="13.68"/>
@@ -1507,13 +1507,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="41.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="25.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="19.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="22.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="28.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="19.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="19.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="23.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="35.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="23.88"/>
